--- a/hepvs2020_ac/hepvs2020_ac_raw.xlsx
+++ b/hepvs2020_ac/hepvs2020_ac_raw.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasbressoud/Documents/GitHub/r-projects/hepvs2020_ac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B6BDD-5EC8-814C-8AD2-2A1161173223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B36542-0D26-8347-9E89-0462D094FA5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="46120" windowHeight="26360" xr2:uid="{F4FB9876-DFD9-034E-A882-10BF7AAE7EAB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{F4FB9876-DFD9-034E-A882-10BF7AAE7EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$AF$2:$AF$87</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$AF$2:$AF$87</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$AF$2:$AF$87</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$AF$2:$AF$87</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$AF$2:$AF$87</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$AF$2:$AF$87</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$AF$2:$AF$87</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -704,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8272BB3F-EA1A-0F4B-9D91-154D26DE5FD0}">
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9241,6 +9233,8024 @@
         <v>38</v>
       </c>
     </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="2">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>2</v>
+      </c>
+      <c r="P88">
+        <v>2</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
+        <v>2</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
+        <v>2</v>
+      </c>
+      <c r="W88">
+        <v>2</v>
+      </c>
+      <c r="X88">
+        <v>2</v>
+      </c>
+      <c r="Y88">
+        <v>2</v>
+      </c>
+      <c r="Z88">
+        <v>2</v>
+      </c>
+      <c r="AA88">
+        <v>2</v>
+      </c>
+      <c r="AB88">
+        <v>2</v>
+      </c>
+      <c r="AC88">
+        <v>2</v>
+      </c>
+      <c r="AD88">
+        <v>2</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
+      </c>
+      <c r="AF88">
+        <f t="shared" ref="AF88:AF147" si="0">SUM(G88:AE88)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="2">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>2</v>
+      </c>
+      <c r="Q89">
+        <v>2</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>2</v>
+      </c>
+      <c r="W89">
+        <v>2</v>
+      </c>
+      <c r="X89">
+        <v>2</v>
+      </c>
+      <c r="Y89">
+        <v>2</v>
+      </c>
+      <c r="Z89">
+        <v>2</v>
+      </c>
+      <c r="AA89">
+        <v>2</v>
+      </c>
+      <c r="AB89">
+        <v>2</v>
+      </c>
+      <c r="AC89">
+        <v>2</v>
+      </c>
+      <c r="AD89">
+        <v>2</v>
+      </c>
+      <c r="AE89">
+        <v>2</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>2</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>2</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
+        <v>2</v>
+      </c>
+      <c r="W90">
+        <v>2</v>
+      </c>
+      <c r="X90">
+        <v>2</v>
+      </c>
+      <c r="Y90">
+        <v>2</v>
+      </c>
+      <c r="Z90">
+        <v>2</v>
+      </c>
+      <c r="AA90">
+        <v>2</v>
+      </c>
+      <c r="AB90">
+        <v>2</v>
+      </c>
+      <c r="AC90">
+        <v>2</v>
+      </c>
+      <c r="AD90">
+        <v>2</v>
+      </c>
+      <c r="AE90">
+        <v>1</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>2</v>
+      </c>
+      <c r="Q91">
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>2</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
+        <v>2</v>
+      </c>
+      <c r="W91">
+        <v>2</v>
+      </c>
+      <c r="X91">
+        <v>2</v>
+      </c>
+      <c r="Y91">
+        <v>2</v>
+      </c>
+      <c r="Z91">
+        <v>2</v>
+      </c>
+      <c r="AA91">
+        <v>2</v>
+      </c>
+      <c r="AB91">
+        <v>1</v>
+      </c>
+      <c r="AC91">
+        <v>2</v>
+      </c>
+      <c r="AD91">
+        <v>2</v>
+      </c>
+      <c r="AE91">
+        <v>1</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="2">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92">
+        <v>2</v>
+      </c>
+      <c r="P92">
+        <v>2</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
+        <v>2</v>
+      </c>
+      <c r="W92">
+        <v>2</v>
+      </c>
+      <c r="X92">
+        <v>2</v>
+      </c>
+      <c r="Y92">
+        <v>2</v>
+      </c>
+      <c r="Z92">
+        <v>2</v>
+      </c>
+      <c r="AA92">
+        <v>2</v>
+      </c>
+      <c r="AB92">
+        <v>2</v>
+      </c>
+      <c r="AC92">
+        <v>2</v>
+      </c>
+      <c r="AD92">
+        <v>2</v>
+      </c>
+      <c r="AE92">
+        <v>2</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93">
+        <v>2</v>
+      </c>
+      <c r="P93">
+        <v>2</v>
+      </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>2</v>
+      </c>
+      <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
+        <v>1</v>
+      </c>
+      <c r="V93">
+        <v>2</v>
+      </c>
+      <c r="W93">
+        <v>2</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+      <c r="Y93">
+        <v>2</v>
+      </c>
+      <c r="Z93">
+        <v>1</v>
+      </c>
+      <c r="AA93">
+        <v>2</v>
+      </c>
+      <c r="AB93">
+        <v>2</v>
+      </c>
+      <c r="AC93">
+        <v>2</v>
+      </c>
+      <c r="AD93">
+        <v>2</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94">
+        <v>2</v>
+      </c>
+      <c r="P94">
+        <v>2</v>
+      </c>
+      <c r="Q94">
+        <v>2</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>2</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
+        <v>2</v>
+      </c>
+      <c r="W94">
+        <v>2</v>
+      </c>
+      <c r="X94">
+        <v>2</v>
+      </c>
+      <c r="Y94">
+        <v>2</v>
+      </c>
+      <c r="Z94">
+        <v>2</v>
+      </c>
+      <c r="AA94">
+        <v>2</v>
+      </c>
+      <c r="AB94">
+        <v>2</v>
+      </c>
+      <c r="AC94">
+        <v>2</v>
+      </c>
+      <c r="AD94">
+        <v>2</v>
+      </c>
+      <c r="AE94">
+        <v>2</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>2</v>
+      </c>
+      <c r="Q95">
+        <v>2</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>2</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
+        <v>2</v>
+      </c>
+      <c r="W95">
+        <v>2</v>
+      </c>
+      <c r="X95">
+        <v>2</v>
+      </c>
+      <c r="Y95">
+        <v>2</v>
+      </c>
+      <c r="Z95">
+        <v>2</v>
+      </c>
+      <c r="AA95">
+        <v>2</v>
+      </c>
+      <c r="AB95">
+        <v>2</v>
+      </c>
+      <c r="AC95">
+        <v>2</v>
+      </c>
+      <c r="AD95">
+        <v>2</v>
+      </c>
+      <c r="AE95">
+        <v>2</v>
+      </c>
+      <c r="AF95">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="2">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="P96">
+        <v>2</v>
+      </c>
+      <c r="Q96">
+        <v>2</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
+        <v>2</v>
+      </c>
+      <c r="W96">
+        <v>2</v>
+      </c>
+      <c r="X96">
+        <v>2</v>
+      </c>
+      <c r="Y96">
+        <v>2</v>
+      </c>
+      <c r="Z96">
+        <v>2</v>
+      </c>
+      <c r="AA96">
+        <v>2</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>2</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="2">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
+        <v>2</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <v>2</v>
+      </c>
+      <c r="Y97">
+        <v>2</v>
+      </c>
+      <c r="Z97">
+        <v>2</v>
+      </c>
+      <c r="AA97">
+        <v>2</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>2</v>
+      </c>
+      <c r="AD97">
+        <v>1</v>
+      </c>
+      <c r="AE97">
+        <v>2</v>
+      </c>
+      <c r="AF97">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>2</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
+        <v>2</v>
+      </c>
+      <c r="W98">
+        <v>2</v>
+      </c>
+      <c r="X98">
+        <v>2</v>
+      </c>
+      <c r="Y98">
+        <v>2</v>
+      </c>
+      <c r="Z98">
+        <v>2</v>
+      </c>
+      <c r="AA98">
+        <v>2</v>
+      </c>
+      <c r="AB98">
+        <v>1</v>
+      </c>
+      <c r="AC98">
+        <v>2</v>
+      </c>
+      <c r="AD98">
+        <v>1</v>
+      </c>
+      <c r="AE98">
+        <v>2</v>
+      </c>
+      <c r="AF98">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>2</v>
+      </c>
+      <c r="P99">
+        <v>2</v>
+      </c>
+      <c r="Q99">
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
+        <v>2</v>
+      </c>
+      <c r="W99">
+        <v>2</v>
+      </c>
+      <c r="X99">
+        <v>2</v>
+      </c>
+      <c r="Y99">
+        <v>2</v>
+      </c>
+      <c r="Z99">
+        <v>2</v>
+      </c>
+      <c r="AA99">
+        <v>2</v>
+      </c>
+      <c r="AB99">
+        <v>2</v>
+      </c>
+      <c r="AC99">
+        <v>2</v>
+      </c>
+      <c r="AD99">
+        <v>2</v>
+      </c>
+      <c r="AE99">
+        <v>2</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100">
+        <v>2</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>2</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>2</v>
+      </c>
+      <c r="X100">
+        <v>1</v>
+      </c>
+      <c r="Y100">
+        <v>2</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>2</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>1</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="2">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101">
+        <v>2</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>2</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101">
+        <v>2</v>
+      </c>
+      <c r="Y101">
+        <v>2</v>
+      </c>
+      <c r="Z101">
+        <v>2</v>
+      </c>
+      <c r="AA101">
+        <v>2</v>
+      </c>
+      <c r="AB101">
+        <v>1</v>
+      </c>
+      <c r="AC101">
+        <v>2</v>
+      </c>
+      <c r="AD101">
+        <v>1</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102">
+        <v>2</v>
+      </c>
+      <c r="P102">
+        <v>2</v>
+      </c>
+      <c r="Q102">
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>2</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <v>2</v>
+      </c>
+      <c r="W102">
+        <v>2</v>
+      </c>
+      <c r="X102">
+        <v>2</v>
+      </c>
+      <c r="Y102">
+        <v>2</v>
+      </c>
+      <c r="Z102">
+        <v>2</v>
+      </c>
+      <c r="AA102">
+        <v>2</v>
+      </c>
+      <c r="AB102">
+        <v>2</v>
+      </c>
+      <c r="AC102">
+        <v>2</v>
+      </c>
+      <c r="AD102">
+        <v>2</v>
+      </c>
+      <c r="AE102">
+        <v>2</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="2">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103">
+        <v>2</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>2</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>2</v>
+      </c>
+      <c r="W103">
+        <v>2</v>
+      </c>
+      <c r="X103">
+        <v>2</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>2</v>
+      </c>
+      <c r="AB103">
+        <v>2</v>
+      </c>
+      <c r="AC103">
+        <v>2</v>
+      </c>
+      <c r="AD103">
+        <v>2</v>
+      </c>
+      <c r="AE103">
+        <v>2</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>2</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <v>2</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>2</v>
+      </c>
+      <c r="Y104">
+        <v>2</v>
+      </c>
+      <c r="Z104">
+        <v>2</v>
+      </c>
+      <c r="AA104">
+        <v>2</v>
+      </c>
+      <c r="AB104">
+        <v>1</v>
+      </c>
+      <c r="AC104">
+        <v>2</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>2</v>
+      </c>
+      <c r="Q105">
+        <v>2</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>2</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>2</v>
+      </c>
+      <c r="V105">
+        <v>2</v>
+      </c>
+      <c r="W105">
+        <v>1</v>
+      </c>
+      <c r="X105">
+        <v>2</v>
+      </c>
+      <c r="Y105">
+        <v>2</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>2</v>
+      </c>
+      <c r="AB105">
+        <v>2</v>
+      </c>
+      <c r="AC105">
+        <v>2</v>
+      </c>
+      <c r="AD105">
+        <v>2</v>
+      </c>
+      <c r="AE105">
+        <v>1</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="2">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>2</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <v>2</v>
+      </c>
+      <c r="V106">
+        <v>2</v>
+      </c>
+      <c r="W106">
+        <v>2</v>
+      </c>
+      <c r="X106">
+        <v>2</v>
+      </c>
+      <c r="Y106">
+        <v>2</v>
+      </c>
+      <c r="Z106">
+        <v>1</v>
+      </c>
+      <c r="AA106">
+        <v>2</v>
+      </c>
+      <c r="AB106">
+        <v>1</v>
+      </c>
+      <c r="AC106">
+        <v>2</v>
+      </c>
+      <c r="AD106">
+        <v>2</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="2">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>2</v>
+      </c>
+      <c r="Q107">
+        <v>2</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>2</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>2</v>
+      </c>
+      <c r="W107">
+        <v>2</v>
+      </c>
+      <c r="X107">
+        <v>1</v>
+      </c>
+      <c r="Y107">
+        <v>2</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>2</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>2</v>
+      </c>
+      <c r="AD107">
+        <v>2</v>
+      </c>
+      <c r="AE107">
+        <v>1</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>2</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>2</v>
+      </c>
+      <c r="T108">
+        <v>1</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>2</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>2</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>2</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>2</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>2</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>2</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>2</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="X109">
+        <v>1</v>
+      </c>
+      <c r="Y109">
+        <v>2</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>2</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>2</v>
+      </c>
+      <c r="AD109">
+        <v>1</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="2">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>2</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>1</v>
+      </c>
+      <c r="V110">
+        <v>2</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>2</v>
+      </c>
+      <c r="Z110">
+        <v>2</v>
+      </c>
+      <c r="AA110">
+        <v>2</v>
+      </c>
+      <c r="AB110">
+        <v>2</v>
+      </c>
+      <c r="AC110">
+        <v>2</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>1</v>
+      </c>
+      <c r="AF110">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>2</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>2</v>
+      </c>
+      <c r="W111">
+        <v>2</v>
+      </c>
+      <c r="X111">
+        <v>2</v>
+      </c>
+      <c r="Y111">
+        <v>2</v>
+      </c>
+      <c r="Z111">
+        <v>1</v>
+      </c>
+      <c r="AA111">
+        <v>2</v>
+      </c>
+      <c r="AB111">
+        <v>2</v>
+      </c>
+      <c r="AC111">
+        <v>2</v>
+      </c>
+      <c r="AD111">
+        <v>1</v>
+      </c>
+      <c r="AE111">
+        <v>2</v>
+      </c>
+      <c r="AF111">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="2">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112">
+        <v>2</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>2</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
+        <v>1</v>
+      </c>
+      <c r="V112">
+        <v>2</v>
+      </c>
+      <c r="W112">
+        <v>1</v>
+      </c>
+      <c r="X112">
+        <v>2</v>
+      </c>
+      <c r="Y112">
+        <v>2</v>
+      </c>
+      <c r="Z112">
+        <v>1</v>
+      </c>
+      <c r="AA112">
+        <v>2</v>
+      </c>
+      <c r="AB112">
+        <v>1</v>
+      </c>
+      <c r="AC112">
+        <v>2</v>
+      </c>
+      <c r="AD112">
+        <v>2</v>
+      </c>
+      <c r="AE112">
+        <v>2</v>
+      </c>
+      <c r="AF112">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>2</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="V113">
+        <v>2</v>
+      </c>
+      <c r="W113">
+        <v>1</v>
+      </c>
+      <c r="X113">
+        <v>1</v>
+      </c>
+      <c r="Y113">
+        <v>2</v>
+      </c>
+      <c r="Z113">
+        <v>2</v>
+      </c>
+      <c r="AA113">
+        <v>2</v>
+      </c>
+      <c r="AB113">
+        <v>1</v>
+      </c>
+      <c r="AC113">
+        <v>2</v>
+      </c>
+      <c r="AD113">
+        <v>1</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="2">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114">
+        <v>2</v>
+      </c>
+      <c r="P114">
+        <v>2</v>
+      </c>
+      <c r="Q114">
+        <v>2</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>1</v>
+      </c>
+      <c r="U114">
+        <v>2</v>
+      </c>
+      <c r="V114">
+        <v>2</v>
+      </c>
+      <c r="W114">
+        <v>2</v>
+      </c>
+      <c r="X114">
+        <v>2</v>
+      </c>
+      <c r="Y114">
+        <v>1</v>
+      </c>
+      <c r="Z114">
+        <v>2</v>
+      </c>
+      <c r="AA114">
+        <v>2</v>
+      </c>
+      <c r="AB114">
+        <v>2</v>
+      </c>
+      <c r="AC114">
+        <v>2</v>
+      </c>
+      <c r="AD114">
+        <v>2</v>
+      </c>
+      <c r="AE114">
+        <v>2</v>
+      </c>
+      <c r="AF114">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>46</v>
+      </c>
+      <c r="E115" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="V115">
+        <v>2</v>
+      </c>
+      <c r="W115">
+        <v>2</v>
+      </c>
+      <c r="X115">
+        <v>1</v>
+      </c>
+      <c r="Y115">
+        <v>2</v>
+      </c>
+      <c r="Z115">
+        <v>2</v>
+      </c>
+      <c r="AA115">
+        <v>2</v>
+      </c>
+      <c r="AB115">
+        <v>1</v>
+      </c>
+      <c r="AC115">
+        <v>2</v>
+      </c>
+      <c r="AD115">
+        <v>2</v>
+      </c>
+      <c r="AE115">
+        <v>1</v>
+      </c>
+      <c r="AF115">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B116" s="2">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>2</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116">
+        <v>2</v>
+      </c>
+      <c r="W116">
+        <v>1</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>2</v>
+      </c>
+      <c r="Z116">
+        <v>1</v>
+      </c>
+      <c r="AA116">
+        <v>2</v>
+      </c>
+      <c r="AB116">
+        <v>2</v>
+      </c>
+      <c r="AC116">
+        <v>2</v>
+      </c>
+      <c r="AD116">
+        <v>1</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="2">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>2</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>1</v>
+      </c>
+      <c r="U117">
+        <v>1</v>
+      </c>
+      <c r="V117">
+        <v>2</v>
+      </c>
+      <c r="W117">
+        <v>2</v>
+      </c>
+      <c r="X117">
+        <v>1</v>
+      </c>
+      <c r="Y117">
+        <v>2</v>
+      </c>
+      <c r="Z117">
+        <v>1</v>
+      </c>
+      <c r="AA117">
+        <v>2</v>
+      </c>
+      <c r="AB117">
+        <v>1</v>
+      </c>
+      <c r="AC117">
+        <v>2</v>
+      </c>
+      <c r="AD117">
+        <v>2</v>
+      </c>
+      <c r="AE117">
+        <v>1</v>
+      </c>
+      <c r="AF117">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" s="2">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>2</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>2</v>
+      </c>
+      <c r="T118">
+        <v>1</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>2</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>2</v>
+      </c>
+      <c r="Y118">
+        <v>2</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>2</v>
+      </c>
+      <c r="AB118">
+        <v>1</v>
+      </c>
+      <c r="AC118">
+        <v>2</v>
+      </c>
+      <c r="AD118">
+        <v>1</v>
+      </c>
+      <c r="AE118">
+        <v>1</v>
+      </c>
+      <c r="AF118">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>2</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119">
+        <v>2</v>
+      </c>
+      <c r="T119">
+        <v>1</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
+        <v>2</v>
+      </c>
+      <c r="W119">
+        <v>1</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>2</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>2</v>
+      </c>
+      <c r="AB119">
+        <v>1</v>
+      </c>
+      <c r="AC119">
+        <v>2</v>
+      </c>
+      <c r="AD119">
+        <v>1</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" s="2">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120">
+        <v>2</v>
+      </c>
+      <c r="Q120">
+        <v>2</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120">
+        <v>2</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
+        <v>2</v>
+      </c>
+      <c r="V120">
+        <v>2</v>
+      </c>
+      <c r="W120">
+        <v>1</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>2</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>2</v>
+      </c>
+      <c r="AB120">
+        <v>1</v>
+      </c>
+      <c r="AC120">
+        <v>2</v>
+      </c>
+      <c r="AD120">
+        <v>2</v>
+      </c>
+      <c r="AE120">
+        <v>1</v>
+      </c>
+      <c r="AF120">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>2</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>2</v>
+      </c>
+      <c r="T121">
+        <v>2</v>
+      </c>
+      <c r="U121">
+        <v>1</v>
+      </c>
+      <c r="V121">
+        <v>2</v>
+      </c>
+      <c r="W121">
+        <v>1</v>
+      </c>
+      <c r="X121">
+        <v>2</v>
+      </c>
+      <c r="Y121">
+        <v>2</v>
+      </c>
+      <c r="Z121">
+        <v>1</v>
+      </c>
+      <c r="AA121">
+        <v>2</v>
+      </c>
+      <c r="AB121">
+        <v>1</v>
+      </c>
+      <c r="AC121">
+        <v>2</v>
+      </c>
+      <c r="AD121">
+        <v>2</v>
+      </c>
+      <c r="AE121">
+        <v>1</v>
+      </c>
+      <c r="AF121">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="2">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122">
+        <v>2</v>
+      </c>
+      <c r="P122">
+        <v>2</v>
+      </c>
+      <c r="Q122">
+        <v>2</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>2</v>
+      </c>
+      <c r="T122">
+        <v>2</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>2</v>
+      </c>
+      <c r="W122">
+        <v>2</v>
+      </c>
+      <c r="X122">
+        <v>2</v>
+      </c>
+      <c r="Y122">
+        <v>2</v>
+      </c>
+      <c r="Z122">
+        <v>2</v>
+      </c>
+      <c r="AA122">
+        <v>2</v>
+      </c>
+      <c r="AB122">
+        <v>2</v>
+      </c>
+      <c r="AC122">
+        <v>2</v>
+      </c>
+      <c r="AD122">
+        <v>2</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>72</v>
+      </c>
+      <c r="B123" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>2</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123">
+        <v>2</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>2</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>2</v>
+      </c>
+      <c r="T123">
+        <v>2</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>2</v>
+      </c>
+      <c r="W123">
+        <v>2</v>
+      </c>
+      <c r="X123">
+        <v>2</v>
+      </c>
+      <c r="Y123">
+        <v>2</v>
+      </c>
+      <c r="Z123">
+        <v>2</v>
+      </c>
+      <c r="AA123">
+        <v>2</v>
+      </c>
+      <c r="AB123">
+        <v>2</v>
+      </c>
+      <c r="AC123">
+        <v>2</v>
+      </c>
+      <c r="AD123">
+        <v>1</v>
+      </c>
+      <c r="AE123">
+        <v>2</v>
+      </c>
+      <c r="AF123">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
+        <v>45</v>
+      </c>
+      <c r="E124" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>2</v>
+      </c>
+      <c r="Q124">
+        <v>2</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
+        <v>2</v>
+      </c>
+      <c r="W124">
+        <v>1</v>
+      </c>
+      <c r="X124">
+        <v>2</v>
+      </c>
+      <c r="Y124">
+        <v>2</v>
+      </c>
+      <c r="Z124">
+        <v>2</v>
+      </c>
+      <c r="AA124">
+        <v>2</v>
+      </c>
+      <c r="AB124">
+        <v>2</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>1</v>
+      </c>
+      <c r="AE124">
+        <v>2</v>
+      </c>
+      <c r="AF124">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>45</v>
+      </c>
+      <c r="E125" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>2</v>
+      </c>
+      <c r="R125">
+        <v>1</v>
+      </c>
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>1</v>
+      </c>
+      <c r="V125">
+        <v>2</v>
+      </c>
+      <c r="W125">
+        <v>2</v>
+      </c>
+      <c r="X125">
+        <v>2</v>
+      </c>
+      <c r="Y125">
+        <v>2</v>
+      </c>
+      <c r="Z125">
+        <v>2</v>
+      </c>
+      <c r="AA125">
+        <v>2</v>
+      </c>
+      <c r="AB125">
+        <v>2</v>
+      </c>
+      <c r="AC125">
+        <v>2</v>
+      </c>
+      <c r="AD125">
+        <v>1</v>
+      </c>
+      <c r="AE125">
+        <v>2</v>
+      </c>
+      <c r="AF125">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>75</v>
+      </c>
+      <c r="B126" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>2</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126">
+        <v>2</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>2</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>2</v>
+      </c>
+      <c r="U126">
+        <v>1</v>
+      </c>
+      <c r="V126">
+        <v>2</v>
+      </c>
+      <c r="W126">
+        <v>2</v>
+      </c>
+      <c r="X126">
+        <v>1</v>
+      </c>
+      <c r="Y126">
+        <v>2</v>
+      </c>
+      <c r="Z126">
+        <v>2</v>
+      </c>
+      <c r="AA126">
+        <v>2</v>
+      </c>
+      <c r="AB126">
+        <v>2</v>
+      </c>
+      <c r="AC126">
+        <v>2</v>
+      </c>
+      <c r="AD126">
+        <v>1</v>
+      </c>
+      <c r="AE126">
+        <v>1</v>
+      </c>
+      <c r="AF126">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>45</v>
+      </c>
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>2</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
+        <v>1</v>
+      </c>
+      <c r="U127">
+        <v>1</v>
+      </c>
+      <c r="V127">
+        <v>2</v>
+      </c>
+      <c r="W127">
+        <v>2</v>
+      </c>
+      <c r="X127">
+        <v>1</v>
+      </c>
+      <c r="Y127">
+        <v>2</v>
+      </c>
+      <c r="Z127">
+        <v>1</v>
+      </c>
+      <c r="AA127">
+        <v>2</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>2</v>
+      </c>
+      <c r="AD127">
+        <v>2</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>77</v>
+      </c>
+      <c r="B128" s="2">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128">
+        <v>2</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
+        <v>1</v>
+      </c>
+      <c r="U128">
+        <v>1</v>
+      </c>
+      <c r="V128">
+        <v>2</v>
+      </c>
+      <c r="W128">
+        <v>2</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>2</v>
+      </c>
+      <c r="Z128">
+        <v>2</v>
+      </c>
+      <c r="AA128">
+        <v>2</v>
+      </c>
+      <c r="AB128">
+        <v>2</v>
+      </c>
+      <c r="AC128">
+        <v>2</v>
+      </c>
+      <c r="AD128">
+        <v>0</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
+      <c r="AF128">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" s="2">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>2</v>
+      </c>
+      <c r="Q129">
+        <v>2</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
+        <v>1</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>2</v>
+      </c>
+      <c r="W129">
+        <v>2</v>
+      </c>
+      <c r="X129">
+        <v>2</v>
+      </c>
+      <c r="Y129">
+        <v>2</v>
+      </c>
+      <c r="Z129">
+        <v>1</v>
+      </c>
+      <c r="AA129">
+        <v>2</v>
+      </c>
+      <c r="AB129">
+        <v>2</v>
+      </c>
+      <c r="AC129">
+        <v>2</v>
+      </c>
+      <c r="AD129">
+        <v>1</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+      <c r="AF129">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>79</v>
+      </c>
+      <c r="B130" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>45</v>
+      </c>
+      <c r="E130" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130">
+        <v>2</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>2</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>2</v>
+      </c>
+      <c r="T130">
+        <v>2</v>
+      </c>
+      <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
+        <v>2</v>
+      </c>
+      <c r="W130">
+        <v>2</v>
+      </c>
+      <c r="X130">
+        <v>2</v>
+      </c>
+      <c r="Y130">
+        <v>2</v>
+      </c>
+      <c r="Z130">
+        <v>2</v>
+      </c>
+      <c r="AA130">
+        <v>2</v>
+      </c>
+      <c r="AB130">
+        <v>1</v>
+      </c>
+      <c r="AC130">
+        <v>2</v>
+      </c>
+      <c r="AD130">
+        <v>1</v>
+      </c>
+      <c r="AE130">
+        <v>0</v>
+      </c>
+      <c r="AF130">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>80</v>
+      </c>
+      <c r="B131" s="2">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131">
+        <v>2</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>2</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="T131">
+        <v>1</v>
+      </c>
+      <c r="U131">
+        <v>1</v>
+      </c>
+      <c r="V131">
+        <v>2</v>
+      </c>
+      <c r="W131">
+        <v>2</v>
+      </c>
+      <c r="X131">
+        <v>1</v>
+      </c>
+      <c r="Y131">
+        <v>2</v>
+      </c>
+      <c r="Z131">
+        <v>1</v>
+      </c>
+      <c r="AA131">
+        <v>2</v>
+      </c>
+      <c r="AB131">
+        <v>1</v>
+      </c>
+      <c r="AC131">
+        <v>2</v>
+      </c>
+      <c r="AD131">
+        <v>1</v>
+      </c>
+      <c r="AE131">
+        <v>1</v>
+      </c>
+      <c r="AF131">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" s="2">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132">
+        <v>2</v>
+      </c>
+      <c r="Q132">
+        <v>2</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>2</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
+        <v>1</v>
+      </c>
+      <c r="V132">
+        <v>2</v>
+      </c>
+      <c r="W132">
+        <v>1</v>
+      </c>
+      <c r="X132">
+        <v>1</v>
+      </c>
+      <c r="Y132">
+        <v>2</v>
+      </c>
+      <c r="Z132">
+        <v>1</v>
+      </c>
+      <c r="AA132">
+        <v>2</v>
+      </c>
+      <c r="AB132">
+        <v>2</v>
+      </c>
+      <c r="AC132">
+        <v>2</v>
+      </c>
+      <c r="AD132">
+        <v>1</v>
+      </c>
+      <c r="AE132">
+        <v>1</v>
+      </c>
+      <c r="AF132">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>82</v>
+      </c>
+      <c r="B133" s="2">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>45</v>
+      </c>
+      <c r="E133" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>2</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>2</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
+        <v>1</v>
+      </c>
+      <c r="V133">
+        <v>2</v>
+      </c>
+      <c r="W133">
+        <v>2</v>
+      </c>
+      <c r="X133">
+        <v>1</v>
+      </c>
+      <c r="Y133">
+        <v>2</v>
+      </c>
+      <c r="Z133">
+        <v>2</v>
+      </c>
+      <c r="AA133">
+        <v>2</v>
+      </c>
+      <c r="AB133">
+        <v>2</v>
+      </c>
+      <c r="AC133">
+        <v>2</v>
+      </c>
+      <c r="AD133">
+        <v>1</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>83</v>
+      </c>
+      <c r="B134" s="2">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>45</v>
+      </c>
+      <c r="E134" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>2</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>1</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>2</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>2</v>
+      </c>
+      <c r="Z134">
+        <v>1</v>
+      </c>
+      <c r="AA134">
+        <v>2</v>
+      </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
+      <c r="AC134">
+        <v>2</v>
+      </c>
+      <c r="AD134">
+        <v>0</v>
+      </c>
+      <c r="AE134">
+        <v>1</v>
+      </c>
+      <c r="AF134">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>84</v>
+      </c>
+      <c r="B135" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>45</v>
+      </c>
+      <c r="E135" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>2</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>2</v>
+      </c>
+      <c r="T135">
+        <v>1</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
+        <v>2</v>
+      </c>
+      <c r="W135">
+        <v>2</v>
+      </c>
+      <c r="X135">
+        <v>1</v>
+      </c>
+      <c r="Y135">
+        <v>2</v>
+      </c>
+      <c r="Z135">
+        <v>2</v>
+      </c>
+      <c r="AA135">
+        <v>2</v>
+      </c>
+      <c r="AB135">
+        <v>1</v>
+      </c>
+      <c r="AC135">
+        <v>2</v>
+      </c>
+      <c r="AD135">
+        <v>0</v>
+      </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
+      <c r="AF135">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>85</v>
+      </c>
+      <c r="B136" s="2">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>45</v>
+      </c>
+      <c r="E136" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>2</v>
+      </c>
+      <c r="Q136">
+        <v>2</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
+        <v>2</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>1</v>
+      </c>
+      <c r="X136">
+        <v>1</v>
+      </c>
+      <c r="Y136">
+        <v>2</v>
+      </c>
+      <c r="Z136">
+        <v>2</v>
+      </c>
+      <c r="AA136">
+        <v>2</v>
+      </c>
+      <c r="AB136">
+        <v>2</v>
+      </c>
+      <c r="AC136">
+        <v>2</v>
+      </c>
+      <c r="AD136">
+        <v>2</v>
+      </c>
+      <c r="AE136">
+        <v>1</v>
+      </c>
+      <c r="AF136">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>88</v>
+      </c>
+      <c r="B137" s="2">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>45</v>
+      </c>
+      <c r="E137" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>1</v>
+      </c>
+      <c r="V137">
+        <v>2</v>
+      </c>
+      <c r="W137">
+        <v>2</v>
+      </c>
+      <c r="X137">
+        <v>1</v>
+      </c>
+      <c r="Y137">
+        <v>2</v>
+      </c>
+      <c r="Z137">
+        <v>1</v>
+      </c>
+      <c r="AA137">
+        <v>2</v>
+      </c>
+      <c r="AB137">
+        <v>2</v>
+      </c>
+      <c r="AC137">
+        <v>2</v>
+      </c>
+      <c r="AD137">
+        <v>1</v>
+      </c>
+      <c r="AE137">
+        <v>2</v>
+      </c>
+      <c r="AF137">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>52</v>
+      </c>
+      <c r="B138" s="2">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>46</v>
+      </c>
+      <c r="E138" t="s">
+        <v>48</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>2</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>1</v>
+      </c>
+      <c r="V138">
+        <v>2</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>2</v>
+      </c>
+      <c r="Z138">
+        <v>2</v>
+      </c>
+      <c r="AA138">
+        <v>2</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>2</v>
+      </c>
+      <c r="AD138">
+        <v>0</v>
+      </c>
+      <c r="AE138">
+        <v>1</v>
+      </c>
+      <c r="AF138">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" t="s">
+        <v>48</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>2</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>2</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>2</v>
+      </c>
+      <c r="W139">
+        <v>2</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>2</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>2</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+      <c r="AC139">
+        <v>2</v>
+      </c>
+      <c r="AD139">
+        <v>0</v>
+      </c>
+      <c r="AE139">
+        <v>1</v>
+      </c>
+      <c r="AF139">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>54</v>
+      </c>
+      <c r="B140" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" t="s">
+        <v>48</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>2</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140">
+        <v>2</v>
+      </c>
+      <c r="P140">
+        <v>2</v>
+      </c>
+      <c r="Q140">
+        <v>2</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>1</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
+        <v>2</v>
+      </c>
+      <c r="W140">
+        <v>2</v>
+      </c>
+      <c r="X140">
+        <v>1</v>
+      </c>
+      <c r="Y140">
+        <v>2</v>
+      </c>
+      <c r="Z140">
+        <v>2</v>
+      </c>
+      <c r="AA140">
+        <v>2</v>
+      </c>
+      <c r="AB140">
+        <v>1</v>
+      </c>
+      <c r="AC140">
+        <v>2</v>
+      </c>
+      <c r="AD140">
+        <v>2</v>
+      </c>
+      <c r="AE140">
+        <v>1</v>
+      </c>
+      <c r="AF140">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>55</v>
+      </c>
+      <c r="B141" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" t="s">
+        <v>48</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141">
+        <v>2</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>1</v>
+      </c>
+      <c r="S141">
+        <v>2</v>
+      </c>
+      <c r="T141">
+        <v>1</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>2</v>
+      </c>
+      <c r="W141">
+        <v>2</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>2</v>
+      </c>
+      <c r="Z141">
+        <v>2</v>
+      </c>
+      <c r="AA141">
+        <v>2</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>2</v>
+      </c>
+      <c r="AF141">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" s="2">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>46</v>
+      </c>
+      <c r="E142" t="s">
+        <v>48</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <v>2</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142">
+        <v>2</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>2</v>
+      </c>
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142">
+        <v>2</v>
+      </c>
+      <c r="T142">
+        <v>1</v>
+      </c>
+      <c r="U142">
+        <v>1</v>
+      </c>
+      <c r="V142">
+        <v>2</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>2</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>2</v>
+      </c>
+      <c r="AB142">
+        <v>2</v>
+      </c>
+      <c r="AC142">
+        <v>2</v>
+      </c>
+      <c r="AD142">
+        <v>2</v>
+      </c>
+      <c r="AE142">
+        <v>1</v>
+      </c>
+      <c r="AF142">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>57</v>
+      </c>
+      <c r="B143" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143" t="s">
+        <v>48</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143">
+        <v>2</v>
+      </c>
+      <c r="P143">
+        <v>2</v>
+      </c>
+      <c r="Q143">
+        <v>2</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>2</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>2</v>
+      </c>
+      <c r="W143">
+        <v>2</v>
+      </c>
+      <c r="X143">
+        <v>2</v>
+      </c>
+      <c r="Y143">
+        <v>2</v>
+      </c>
+      <c r="Z143">
+        <v>2</v>
+      </c>
+      <c r="AA143">
+        <v>2</v>
+      </c>
+      <c r="AB143">
+        <v>2</v>
+      </c>
+      <c r="AC143">
+        <v>2</v>
+      </c>
+      <c r="AD143">
+        <v>2</v>
+      </c>
+      <c r="AE143">
+        <v>2</v>
+      </c>
+      <c r="AF143">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>58</v>
+      </c>
+      <c r="B144" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144" t="s">
+        <v>48</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144">
+        <v>2</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
+        <v>1</v>
+      </c>
+      <c r="V144">
+        <v>2</v>
+      </c>
+      <c r="W144">
+        <v>2</v>
+      </c>
+      <c r="X144">
+        <v>1</v>
+      </c>
+      <c r="Y144">
+        <v>2</v>
+      </c>
+      <c r="Z144">
+        <v>1</v>
+      </c>
+      <c r="AA144">
+        <v>2</v>
+      </c>
+      <c r="AB144">
+        <v>0</v>
+      </c>
+      <c r="AC144">
+        <v>2</v>
+      </c>
+      <c r="AD144">
+        <v>1</v>
+      </c>
+      <c r="AE144">
+        <v>2</v>
+      </c>
+      <c r="AF144">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>59</v>
+      </c>
+      <c r="B145" s="2">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" t="s">
+        <v>48</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145">
+        <v>2</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>2</v>
+      </c>
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
+        <v>2</v>
+      </c>
+      <c r="U145">
+        <v>1</v>
+      </c>
+      <c r="V145">
+        <v>2</v>
+      </c>
+      <c r="W145">
+        <v>1</v>
+      </c>
+      <c r="X145">
+        <v>1</v>
+      </c>
+      <c r="Y145">
+        <v>2</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>2</v>
+      </c>
+      <c r="AB145">
+        <v>1</v>
+      </c>
+      <c r="AC145">
+        <v>2</v>
+      </c>
+      <c r="AD145">
+        <v>1</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+      <c r="AF145">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>60</v>
+      </c>
+      <c r="B146" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>46</v>
+      </c>
+      <c r="E146" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146">
+        <v>2</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>2</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>2</v>
+      </c>
+      <c r="T146">
+        <v>2</v>
+      </c>
+      <c r="U146">
+        <v>1</v>
+      </c>
+      <c r="V146">
+        <v>2</v>
+      </c>
+      <c r="W146">
+        <v>1</v>
+      </c>
+      <c r="X146">
+        <v>1</v>
+      </c>
+      <c r="Y146">
+        <v>2</v>
+      </c>
+      <c r="Z146">
+        <v>2</v>
+      </c>
+      <c r="AA146">
+        <v>2</v>
+      </c>
+      <c r="AB146">
+        <v>1</v>
+      </c>
+      <c r="AC146">
+        <v>2</v>
+      </c>
+      <c r="AD146">
+        <v>1</v>
+      </c>
+      <c r="AE146">
+        <v>1</v>
+      </c>
+      <c r="AF146">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>61</v>
+      </c>
+      <c r="B147" s="2">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>46</v>
+      </c>
+      <c r="E147" t="s">
+        <v>48</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>2</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>2</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>1</v>
+      </c>
+      <c r="V147">
+        <v>2</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>1</v>
+      </c>
+      <c r="Y147">
+        <v>2</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>2</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <v>2</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>0</v>
+      </c>
+      <c r="AF147">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" s="2">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>45</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148">
+        <v>2</v>
+      </c>
+      <c r="P148">
+        <v>2</v>
+      </c>
+      <c r="Q148">
+        <v>2</v>
+      </c>
+      <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
+        <v>2</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
+      <c r="V148">
+        <v>2</v>
+      </c>
+      <c r="W148">
+        <v>2</v>
+      </c>
+      <c r="X148">
+        <v>2</v>
+      </c>
+      <c r="Y148">
+        <v>2</v>
+      </c>
+      <c r="Z148">
+        <v>1</v>
+      </c>
+      <c r="AA148">
+        <v>2</v>
+      </c>
+      <c r="AB148">
+        <v>2</v>
+      </c>
+      <c r="AC148">
+        <v>2</v>
+      </c>
+      <c r="AD148">
+        <v>2</v>
+      </c>
+      <c r="AE148">
+        <v>2</v>
+      </c>
+      <c r="AF148">
+        <f t="shared" ref="AF148:AF168" si="1">SUM(G148:AE148)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>50</v>
+      </c>
+      <c r="B149" s="2">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>45</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="G149">
+        <v>2</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149">
+        <v>2</v>
+      </c>
+      <c r="P149">
+        <v>2</v>
+      </c>
+      <c r="Q149">
+        <v>2</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
+        <v>1</v>
+      </c>
+      <c r="U149">
+        <v>1</v>
+      </c>
+      <c r="V149">
+        <v>2</v>
+      </c>
+      <c r="W149">
+        <v>1</v>
+      </c>
+      <c r="X149">
+        <v>1</v>
+      </c>
+      <c r="Y149">
+        <v>2</v>
+      </c>
+      <c r="Z149">
+        <v>2</v>
+      </c>
+      <c r="AA149">
+        <v>2</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+      <c r="AC149">
+        <v>2</v>
+      </c>
+      <c r="AD149">
+        <v>1</v>
+      </c>
+      <c r="AE149">
+        <v>1</v>
+      </c>
+      <c r="AF149">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>62</v>
+      </c>
+      <c r="B150" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>45</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150">
+        <v>2</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>2</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150">
+        <v>2</v>
+      </c>
+      <c r="W150">
+        <v>2</v>
+      </c>
+      <c r="X150">
+        <v>2</v>
+      </c>
+      <c r="Y150">
+        <v>2</v>
+      </c>
+      <c r="Z150">
+        <v>2</v>
+      </c>
+      <c r="AA150">
+        <v>2</v>
+      </c>
+      <c r="AB150">
+        <v>2</v>
+      </c>
+      <c r="AC150">
+        <v>2</v>
+      </c>
+      <c r="AD150">
+        <v>2</v>
+      </c>
+      <c r="AE150">
+        <v>2</v>
+      </c>
+      <c r="AF150">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>45</v>
+      </c>
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+      <c r="G151">
+        <v>2</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151">
+        <v>2</v>
+      </c>
+      <c r="P151">
+        <v>2</v>
+      </c>
+      <c r="Q151">
+        <v>2</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>2</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>2</v>
+      </c>
+      <c r="V151">
+        <v>2</v>
+      </c>
+      <c r="W151">
+        <v>2</v>
+      </c>
+      <c r="X151">
+        <v>2</v>
+      </c>
+      <c r="Y151">
+        <v>2</v>
+      </c>
+      <c r="Z151">
+        <v>2</v>
+      </c>
+      <c r="AA151">
+        <v>2</v>
+      </c>
+      <c r="AB151">
+        <v>2</v>
+      </c>
+      <c r="AC151">
+        <v>2</v>
+      </c>
+      <c r="AD151">
+        <v>2</v>
+      </c>
+      <c r="AE151">
+        <v>2</v>
+      </c>
+      <c r="AF151">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>64</v>
+      </c>
+      <c r="B152" s="2">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>45</v>
+      </c>
+      <c r="E152" t="s">
+        <v>6</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>2</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
+        <v>2</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152">
+        <v>2</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>2</v>
+      </c>
+      <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
+        <v>2</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2</v>
+      </c>
+      <c r="V152">
+        <v>2</v>
+      </c>
+      <c r="W152">
+        <v>2</v>
+      </c>
+      <c r="X152">
+        <v>2</v>
+      </c>
+      <c r="Y152">
+        <v>2</v>
+      </c>
+      <c r="Z152">
+        <v>2</v>
+      </c>
+      <c r="AA152">
+        <v>2</v>
+      </c>
+      <c r="AB152">
+        <v>2</v>
+      </c>
+      <c r="AC152">
+        <v>2</v>
+      </c>
+      <c r="AD152">
+        <v>2</v>
+      </c>
+      <c r="AE152">
+        <v>2</v>
+      </c>
+      <c r="AF152">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>65</v>
+      </c>
+      <c r="B153" s="2">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153">
+        <v>2</v>
+      </c>
+      <c r="P153">
+        <v>2</v>
+      </c>
+      <c r="Q153">
+        <v>2</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>2</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
+        <v>2</v>
+      </c>
+      <c r="W153">
+        <v>2</v>
+      </c>
+      <c r="X153">
+        <v>2</v>
+      </c>
+      <c r="Y153">
+        <v>2</v>
+      </c>
+      <c r="Z153">
+        <v>2</v>
+      </c>
+      <c r="AA153">
+        <v>2</v>
+      </c>
+      <c r="AB153">
+        <v>2</v>
+      </c>
+      <c r="AC153">
+        <v>2</v>
+      </c>
+      <c r="AD153">
+        <v>2</v>
+      </c>
+      <c r="AE153">
+        <v>2</v>
+      </c>
+      <c r="AF153">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>67</v>
+      </c>
+      <c r="B154" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>45</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>2</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154">
+        <v>2</v>
+      </c>
+      <c r="P154">
+        <v>2</v>
+      </c>
+      <c r="Q154">
+        <v>2</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
+        <v>2</v>
+      </c>
+      <c r="W154">
+        <v>2</v>
+      </c>
+      <c r="X154">
+        <v>2</v>
+      </c>
+      <c r="Y154">
+        <v>2</v>
+      </c>
+      <c r="Z154">
+        <v>2</v>
+      </c>
+      <c r="AA154">
+        <v>2</v>
+      </c>
+      <c r="AB154">
+        <v>1</v>
+      </c>
+      <c r="AC154">
+        <v>2</v>
+      </c>
+      <c r="AD154">
+        <v>1</v>
+      </c>
+      <c r="AE154">
+        <v>2</v>
+      </c>
+      <c r="AF154">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>68</v>
+      </c>
+      <c r="B155" s="2">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>45</v>
+      </c>
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155">
+        <v>2</v>
+      </c>
+      <c r="Q155">
+        <v>2</v>
+      </c>
+      <c r="R155">
+        <v>1</v>
+      </c>
+      <c r="S155">
+        <v>2</v>
+      </c>
+      <c r="T155">
+        <v>2</v>
+      </c>
+      <c r="U155">
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <v>2</v>
+      </c>
+      <c r="W155">
+        <v>1</v>
+      </c>
+      <c r="X155">
+        <v>1</v>
+      </c>
+      <c r="Y155">
+        <v>2</v>
+      </c>
+      <c r="Z155">
+        <v>2</v>
+      </c>
+      <c r="AA155">
+        <v>2</v>
+      </c>
+      <c r="AB155">
+        <v>2</v>
+      </c>
+      <c r="AC155">
+        <v>2</v>
+      </c>
+      <c r="AD155">
+        <v>1</v>
+      </c>
+      <c r="AE155">
+        <v>1</v>
+      </c>
+      <c r="AF155">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>69</v>
+      </c>
+      <c r="B156" s="2">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>45</v>
+      </c>
+      <c r="E156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156">
+        <v>2</v>
+      </c>
+      <c r="P156">
+        <v>1</v>
+      </c>
+      <c r="Q156">
+        <v>2</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>2</v>
+      </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156">
+        <v>2</v>
+      </c>
+      <c r="W156">
+        <v>2</v>
+      </c>
+      <c r="X156">
+        <v>2</v>
+      </c>
+      <c r="Y156">
+        <v>2</v>
+      </c>
+      <c r="Z156">
+        <v>2</v>
+      </c>
+      <c r="AA156">
+        <v>2</v>
+      </c>
+      <c r="AB156">
+        <v>2</v>
+      </c>
+      <c r="AC156">
+        <v>2</v>
+      </c>
+      <c r="AD156">
+        <v>2</v>
+      </c>
+      <c r="AE156">
+        <v>2</v>
+      </c>
+      <c r="AF156">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>70</v>
+      </c>
+      <c r="B157" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" t="s">
+        <v>45</v>
+      </c>
+      <c r="E157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <v>2</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157">
+        <v>2</v>
+      </c>
+      <c r="P157">
+        <v>2</v>
+      </c>
+      <c r="Q157">
+        <v>2</v>
+      </c>
+      <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
+        <v>2</v>
+      </c>
+      <c r="W157">
+        <v>2</v>
+      </c>
+      <c r="X157">
+        <v>2</v>
+      </c>
+      <c r="Y157">
+        <v>2</v>
+      </c>
+      <c r="Z157">
+        <v>2</v>
+      </c>
+      <c r="AA157">
+        <v>2</v>
+      </c>
+      <c r="AB157">
+        <v>2</v>
+      </c>
+      <c r="AC157">
+        <v>2</v>
+      </c>
+      <c r="AD157">
+        <v>2</v>
+      </c>
+      <c r="AE157">
+        <v>2</v>
+      </c>
+      <c r="AF157">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>71</v>
+      </c>
+      <c r="B158" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>45</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158">
+        <v>1</v>
+      </c>
+      <c r="P158">
+        <v>2</v>
+      </c>
+      <c r="Q158">
+        <v>2</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>2</v>
+      </c>
+      <c r="V158">
+        <v>2</v>
+      </c>
+      <c r="W158">
+        <v>1</v>
+      </c>
+      <c r="X158">
+        <v>2</v>
+      </c>
+      <c r="Y158">
+        <v>2</v>
+      </c>
+      <c r="Z158">
+        <v>2</v>
+      </c>
+      <c r="AA158">
+        <v>2</v>
+      </c>
+      <c r="AB158">
+        <v>1</v>
+      </c>
+      <c r="AC158">
+        <v>2</v>
+      </c>
+      <c r="AD158">
+        <v>2</v>
+      </c>
+      <c r="AE158">
+        <v>1</v>
+      </c>
+      <c r="AF158">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>51</v>
+      </c>
+      <c r="B159" s="2">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>46</v>
+      </c>
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159">
+        <v>2</v>
+      </c>
+      <c r="P159">
+        <v>1</v>
+      </c>
+      <c r="Q159">
+        <v>2</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>2</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>1</v>
+      </c>
+      <c r="V159">
+        <v>2</v>
+      </c>
+      <c r="W159">
+        <v>2</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>2</v>
+      </c>
+      <c r="Z159">
+        <v>1</v>
+      </c>
+      <c r="AA159">
+        <v>2</v>
+      </c>
+      <c r="AB159">
+        <v>2</v>
+      </c>
+      <c r="AC159">
+        <v>2</v>
+      </c>
+      <c r="AD159">
+        <v>1</v>
+      </c>
+      <c r="AE159">
+        <v>0</v>
+      </c>
+      <c r="AF159">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>89</v>
+      </c>
+      <c r="B160" s="2">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>46</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160">
+        <v>1</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>2</v>
+      </c>
+      <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
+        <v>2</v>
+      </c>
+      <c r="T160">
+        <v>2</v>
+      </c>
+      <c r="U160">
+        <v>1</v>
+      </c>
+      <c r="V160">
+        <v>2</v>
+      </c>
+      <c r="W160">
+        <v>2</v>
+      </c>
+      <c r="X160">
+        <v>2</v>
+      </c>
+      <c r="Y160">
+        <v>2</v>
+      </c>
+      <c r="Z160">
+        <v>1</v>
+      </c>
+      <c r="AA160">
+        <v>2</v>
+      </c>
+      <c r="AB160">
+        <v>2</v>
+      </c>
+      <c r="AC160">
+        <v>2</v>
+      </c>
+      <c r="AD160">
+        <v>2</v>
+      </c>
+      <c r="AE160">
+        <v>1</v>
+      </c>
+      <c r="AF160">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>90</v>
+      </c>
+      <c r="B161" s="2">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" t="s">
+        <v>46</v>
+      </c>
+      <c r="E161" t="s">
+        <v>5</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161">
+        <v>1</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>2</v>
+      </c>
+      <c r="R161">
+        <v>1</v>
+      </c>
+      <c r="S161">
+        <v>2</v>
+      </c>
+      <c r="T161">
+        <v>1</v>
+      </c>
+      <c r="U161">
+        <v>2</v>
+      </c>
+      <c r="V161">
+        <v>2</v>
+      </c>
+      <c r="W161">
+        <v>2</v>
+      </c>
+      <c r="X161">
+        <v>1</v>
+      </c>
+      <c r="Y161">
+        <v>2</v>
+      </c>
+      <c r="Z161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
+        <v>2</v>
+      </c>
+      <c r="AB161">
+        <v>1</v>
+      </c>
+      <c r="AC161">
+        <v>2</v>
+      </c>
+      <c r="AD161">
+        <v>1</v>
+      </c>
+      <c r="AE161">
+        <v>2</v>
+      </c>
+      <c r="AF161">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>91</v>
+      </c>
+      <c r="B162" s="2">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" t="s">
+        <v>46</v>
+      </c>
+      <c r="E162" t="s">
+        <v>5</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>2</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162">
+        <v>1</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>2</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
+        <v>1</v>
+      </c>
+      <c r="V162">
+        <v>2</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>2</v>
+      </c>
+      <c r="Y162">
+        <v>2</v>
+      </c>
+      <c r="Z162">
+        <v>1</v>
+      </c>
+      <c r="AA162">
+        <v>2</v>
+      </c>
+      <c r="AB162">
+        <v>2</v>
+      </c>
+      <c r="AC162">
+        <v>2</v>
+      </c>
+      <c r="AD162">
+        <v>1</v>
+      </c>
+      <c r="AE162">
+        <v>2</v>
+      </c>
+      <c r="AF162">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>92</v>
+      </c>
+      <c r="B163" s="2">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>46</v>
+      </c>
+      <c r="E163" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>2</v>
+      </c>
+      <c r="R163">
+        <v>1</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>1</v>
+      </c>
+      <c r="U163">
+        <v>1</v>
+      </c>
+      <c r="V163">
+        <v>2</v>
+      </c>
+      <c r="W163">
+        <v>1</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>2</v>
+      </c>
+      <c r="Z163">
+        <v>2</v>
+      </c>
+      <c r="AA163">
+        <v>2</v>
+      </c>
+      <c r="AB163">
+        <v>2</v>
+      </c>
+      <c r="AC163">
+        <v>2</v>
+      </c>
+      <c r="AD163">
+        <v>1</v>
+      </c>
+      <c r="AE163">
+        <v>0</v>
+      </c>
+      <c r="AF163">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>93</v>
+      </c>
+      <c r="B164" s="2">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>46</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164">
+        <v>2</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164">
+        <v>1</v>
+      </c>
+      <c r="Q164">
+        <v>2</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>2</v>
+      </c>
+      <c r="T164">
+        <v>1</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>2</v>
+      </c>
+      <c r="W164">
+        <v>2</v>
+      </c>
+      <c r="X164">
+        <v>1</v>
+      </c>
+      <c r="Y164">
+        <v>2</v>
+      </c>
+      <c r="Z164">
+        <v>1</v>
+      </c>
+      <c r="AA164">
+        <v>2</v>
+      </c>
+      <c r="AB164">
+        <v>2</v>
+      </c>
+      <c r="AC164">
+        <v>2</v>
+      </c>
+      <c r="AD164">
+        <v>1</v>
+      </c>
+      <c r="AE164">
+        <v>1</v>
+      </c>
+      <c r="AF164">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>94</v>
+      </c>
+      <c r="B165" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" t="s">
+        <v>46</v>
+      </c>
+      <c r="E165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165">
+        <v>2</v>
+      </c>
+      <c r="P165">
+        <v>1</v>
+      </c>
+      <c r="Q165">
+        <v>2</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>2</v>
+      </c>
+      <c r="T165">
+        <v>1</v>
+      </c>
+      <c r="U165">
+        <v>1</v>
+      </c>
+      <c r="V165">
+        <v>2</v>
+      </c>
+      <c r="W165">
+        <v>1</v>
+      </c>
+      <c r="X165">
+        <v>1</v>
+      </c>
+      <c r="Y165">
+        <v>2</v>
+      </c>
+      <c r="Z165">
+        <v>1</v>
+      </c>
+      <c r="AA165">
+        <v>2</v>
+      </c>
+      <c r="AB165">
+        <v>2</v>
+      </c>
+      <c r="AC165">
+        <v>2</v>
+      </c>
+      <c r="AD165">
+        <v>1</v>
+      </c>
+      <c r="AE165">
+        <v>2</v>
+      </c>
+      <c r="AF165">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B166" s="2">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>46</v>
+      </c>
+      <c r="E166" t="s">
+        <v>5</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166">
+        <v>2</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166">
+        <v>1</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+      <c r="R166">
+        <v>1</v>
+      </c>
+      <c r="S166">
+        <v>2</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <v>1</v>
+      </c>
+      <c r="V166">
+        <v>2</v>
+      </c>
+      <c r="W166">
+        <v>2</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>2</v>
+      </c>
+      <c r="Z166">
+        <v>1</v>
+      </c>
+      <c r="AA166">
+        <v>2</v>
+      </c>
+      <c r="AB166">
+        <v>2</v>
+      </c>
+      <c r="AC166">
+        <v>2</v>
+      </c>
+      <c r="AD166">
+        <v>2</v>
+      </c>
+      <c r="AE166">
+        <v>2</v>
+      </c>
+      <c r="AF166">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>96</v>
+      </c>
+      <c r="B167" s="2">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>46</v>
+      </c>
+      <c r="E167" t="s">
+        <v>5</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167">
+        <v>2</v>
+      </c>
+      <c r="P167">
+        <v>2</v>
+      </c>
+      <c r="Q167">
+        <v>2</v>
+      </c>
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>2</v>
+      </c>
+      <c r="T167">
+        <v>2</v>
+      </c>
+      <c r="U167">
+        <v>1</v>
+      </c>
+      <c r="V167">
+        <v>2</v>
+      </c>
+      <c r="W167">
+        <v>1</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>2</v>
+      </c>
+      <c r="Z167">
+        <v>1</v>
+      </c>
+      <c r="AA167">
+        <v>2</v>
+      </c>
+      <c r="AB167">
+        <v>2</v>
+      </c>
+      <c r="AC167">
+        <v>2</v>
+      </c>
+      <c r="AD167">
+        <v>1</v>
+      </c>
+      <c r="AE167">
+        <v>0</v>
+      </c>
+      <c r="AF167">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>97</v>
+      </c>
+      <c r="B168" s="2">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>46</v>
+      </c>
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <v>2</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168">
+        <v>1</v>
+      </c>
+      <c r="P168">
+        <v>1</v>
+      </c>
+      <c r="Q168">
+        <v>2</v>
+      </c>
+      <c r="R168">
+        <v>1</v>
+      </c>
+      <c r="S168">
+        <v>2</v>
+      </c>
+      <c r="T168">
+        <v>1</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>2</v>
+      </c>
+      <c r="W168">
+        <v>1</v>
+      </c>
+      <c r="X168">
+        <v>1</v>
+      </c>
+      <c r="Y168">
+        <v>2</v>
+      </c>
+      <c r="Z168">
+        <v>1</v>
+      </c>
+      <c r="AA168">
+        <v>2</v>
+      </c>
+      <c r="AB168">
+        <v>2</v>
+      </c>
+      <c r="AC168">
+        <v>2</v>
+      </c>
+      <c r="AD168">
+        <v>2</v>
+      </c>
+      <c r="AE168">
+        <v>1</v>
+      </c>
+      <c r="AF168">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
